--- a/artfynd/A 28806-2024 artfynd.xlsx
+++ b/artfynd/A 28806-2024 artfynd.xlsx
@@ -33924,7 +33924,7 @@
         <v>130189802</v>
       </c>
       <c r="B272" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>130251827</v>
       </c>
       <c r="B273" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
